--- a/data/trans_camb/P9_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P9_1_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 3,61</t>
+          <t>-1,42; 3,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,11</t>
+          <t>-3,2; 0,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,31</t>
+          <t>-3,36; 2,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,43</t>
+          <t>-3,28; 2,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,76</t>
+          <t>-4,46; 0,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 4,08</t>
+          <t>-4,17; 4,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,32</t>
+          <t>-1,66; 2,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 0,31</t>
+          <t>-3,25; 0,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,62</t>
+          <t>-3,09; 1,54</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 181,96</t>
+          <t>-37,79; 189,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-74,72; 60,66</t>
+          <t>-75,62; 64,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,19; 125,33</t>
+          <t>-87,81; 168,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,04; 68,76</t>
+          <t>-51,69; 76,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,29; 26,44</t>
+          <t>-68,23; 24,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,75; 110,54</t>
+          <t>-71,91; 103,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,2; 73,67</t>
+          <t>-34,28; 69,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,31; 13,51</t>
+          <t>-63,85; 17,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-67,69; 49,23</t>
+          <t>-65,44; 53,05</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 2,32</t>
+          <t>-1,5; 2,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,75</t>
+          <t>-0,71; 3,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 7,95</t>
+          <t>1,17; 8,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,46; -0,31</t>
+          <t>-6,39; -0,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 0,83</t>
+          <t>-5,21; 0,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 0,14</t>
+          <t>-5,99; 0,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 0,38</t>
+          <t>-2,84; 0,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,79</t>
+          <t>-1,97; 1,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 2,95</t>
+          <t>-1,31; 3,18</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 113,17</t>
+          <t>-39,58; 107,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 168,7</t>
+          <t>-19,67; 159,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,54; 354,89</t>
+          <t>26,32; 338,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,84; -4,98</t>
+          <t>-64,17; -4,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,22; 13,9</t>
+          <t>-52,94; 12,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,4; 3,89</t>
+          <t>-61,65; 5,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,89; 9,2</t>
+          <t>-45,18; 9,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 40,38</t>
+          <t>-31,31; 35,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 62,43</t>
+          <t>-21,34; 66,72</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 4,19</t>
+          <t>-0,82; 4,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,8</t>
+          <t>-2,99; 1,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 6,67</t>
+          <t>0,42; 6,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 5,81</t>
+          <t>-0,66; 5,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 3,06</t>
+          <t>-3,29; 2,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 4,56</t>
+          <t>-1,78; 4,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,11</t>
+          <t>-0,04; 4,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,5</t>
+          <t>-2,48; 1,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,71</t>
+          <t>0,1; 4,5</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 109,61</t>
+          <t>-13,43; 113,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,99; 52,72</t>
+          <t>-49,56; 48,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,92; 178,5</t>
+          <t>6,18; 175,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 74,82</t>
+          <t>-6,62; 73,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 40,29</t>
+          <t>-30,94; 36,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 62,06</t>
+          <t>-16,28; 62,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 67,27</t>
+          <t>-0,73; 68,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,75; 24,94</t>
+          <t>-29,77; 24,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 74,31</t>
+          <t>0,12; 73,54</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,79</t>
+          <t>-1,97; 4,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 6,56</t>
+          <t>-0,34; 6,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,18</t>
+          <t>1,39; 9,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 5,63</t>
+          <t>-3,22; 5,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,81</t>
+          <t>-5,33; 3,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 6,49</t>
+          <t>-1,8; 6,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,05</t>
+          <t>-1,31; 4,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 3,87</t>
+          <t>-1,62; 3,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 6,79</t>
+          <t>1,16; 6,91</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 90,66</t>
+          <t>-21,71; 88,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 124,59</t>
+          <t>-5,36; 116,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,28; 162,76</t>
+          <t>13,99; 165,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 44,82</t>
+          <t>-19,51; 47,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 23,34</t>
+          <t>-31,81; 26,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 53,78</t>
+          <t>-11,2; 54,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 43,83</t>
+          <t>-10,7; 46,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 41,75</t>
+          <t>-12,71; 38,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,0; 72,97</t>
+          <t>9,6; 72,3</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 5,43</t>
+          <t>-4,47; 5,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 2,4</t>
+          <t>-7,93; 1,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 9,54</t>
+          <t>0,1; 9,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,32; 16,72</t>
+          <t>5,07; 16,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 12,03</t>
+          <t>0,85; 11,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,69; 11,32</t>
+          <t>1,62; 11,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,8; 9,71</t>
+          <t>2,11; 9,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 5,46</t>
+          <t>-1,24; 5,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,17; 9,2</t>
+          <t>2,29; 9,11</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 42,81</t>
+          <t>-25,4; 44,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,93; 18,48</t>
+          <t>-43,13; 15,4</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 73,65</t>
+          <t>0,01; 77,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>25,69; 106,86</t>
+          <t>23,15; 107,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,11; 83,68</t>
+          <t>3,52; 76,43</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,92; 76,28</t>
+          <t>7,99; 74,1</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,7; 63,03</t>
+          <t>10,6; 61,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 36,66</t>
+          <t>-6,45; 36,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,22; 62,75</t>
+          <t>11,52; 62,2</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,46; 15,39</t>
+          <t>4,91; 16,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 7,25</t>
+          <t>-3,17; 7,03</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 4,15</t>
+          <t>-5,32; 4,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,93; 17,36</t>
+          <t>6,51; 16,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,61; 14,14</t>
+          <t>3,37; 14,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 5,82</t>
+          <t>-12,82; 5,7</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,09; 14,95</t>
+          <t>6,95; 14,92</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,93; 9,5</t>
+          <t>2,03; 9,47</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 3,71</t>
+          <t>-7,94; 3,58</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>15,31; 66,33</t>
+          <t>16,79; 68,7</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 31,48</t>
+          <t>-11,21; 30,49</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 18,62</t>
+          <t>-18,44; 17,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,84; 47,45</t>
+          <t>14,04; 45,62</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>8,65; 38,47</t>
+          <t>8,2; 38,8</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-29,98; 15,28</t>
+          <t>-31,82; 14,88</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>19,99; 46,37</t>
+          <t>19,53; 47,14</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>5,56; 30,56</t>
+          <t>5,73; 29,83</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 11,52</t>
+          <t>-22,73; 11,16</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,47</t>
+          <t>1,43; 4,51</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,96</t>
+          <t>-0,0; 2,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,77</t>
+          <t>3,4; 6,71</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,55</t>
+          <t>2,69; 6,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,02</t>
+          <t>1,16; 5,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,85</t>
+          <t>1,82; 5,77</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,94</t>
+          <t>2,74; 5,07</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,5</t>
+          <t>1,19; 3,6</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,91</t>
+          <t>3,16; 5,87</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>14,52; 54,36</t>
+          <t>14,46; 54,07</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 35,69</t>
+          <t>0,02; 34,44</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>36,05; 81,27</t>
+          <t>34,92; 81,32</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>14,46; 42,39</t>
+          <t>15,98; 42,75</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>6,97; 32,85</t>
+          <t>7,43; 32,63</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>10,0; 37,67</t>
+          <t>10,66; 37,55</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,39; 40,55</t>
+          <t>20,62; 42,48</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>8,71; 28,63</t>
+          <t>9,18; 29,79</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>24,42; 48,63</t>
+          <t>23,85; 48,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P9_1_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 3,52</t>
+          <t>-1,3; 3,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 0,98</t>
+          <t>-3,14; 1,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 2,73</t>
+          <t>-3,42; 2,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 2,71</t>
+          <t>-3,27; 2,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 0,76</t>
+          <t>-4,76; 0,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 4,14</t>
+          <t>-4,31; 3,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 2,23</t>
+          <t>-1,59; 2,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,41</t>
+          <t>-3,07; 0,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,54</t>
+          <t>-3,11; 1,59</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 189,81</t>
+          <t>-33,05; 167,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-75,62; 64,39</t>
+          <t>-75,98; 76,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-87,81; 168,24</t>
+          <t>-88,88; 141,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,69; 76,71</t>
+          <t>-49,54; 76,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,23; 24,37</t>
+          <t>-70,21; 26,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,91; 103,81</t>
+          <t>-72,52; 87,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,28; 69,17</t>
+          <t>-33,31; 64,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,85; 17,02</t>
+          <t>-62,33; 9,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-65,44; 53,05</t>
+          <t>-66,34; 50,7</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 2,26</t>
+          <t>-1,45; 2,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,71</t>
+          <t>-0,65; 3,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,0</t>
+          <t>1,06; 7,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -0,39</t>
+          <t>-6,36; -0,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 0,84</t>
+          <t>-5,26; 0,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 0,2</t>
+          <t>-5,86; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,43</t>
+          <t>-2,97; 0,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,6</t>
+          <t>-1,98; 1,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,18</t>
+          <t>-1,58; 2,95</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,58; 107,55</t>
+          <t>-38,46; 108,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 159,94</t>
+          <t>-20,4; 170,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,32; 338,13</t>
+          <t>24,58; 343,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,17; -4,63</t>
+          <t>-63,63; -7,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,94; 12,94</t>
+          <t>-52,35; 15,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,65; 5,08</t>
+          <t>-61,66; 3,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,18; 9,96</t>
+          <t>-48,24; 6,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 35,65</t>
+          <t>-31,56; 40,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 66,72</t>
+          <t>-25,33; 62,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,11</t>
+          <t>-1,09; 4,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,79</t>
+          <t>-3,0; 1,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 6,41</t>
+          <t>0,37; 6,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 5,74</t>
+          <t>-0,34; 6,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 2,82</t>
+          <t>-3,32; 2,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 4,54</t>
+          <t>-1,78; 4,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 4,17</t>
+          <t>-0,07; 4,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,46</t>
+          <t>-2,62; 1,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,5</t>
+          <t>0,17; 4,81</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 113,64</t>
+          <t>-19,21; 111,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,56; 48,98</t>
+          <t>-47,25; 50,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,18; 175,63</t>
+          <t>1,54; 176,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 73,6</t>
+          <t>-4,6; 78,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 36,85</t>
+          <t>-31,13; 36,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 62,17</t>
+          <t>-16,77; 58,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 68,88</t>
+          <t>-0,86; 70,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 24,29</t>
+          <t>-33,29; 23,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,12; 73,54</t>
+          <t>0,71; 77,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 4,89</t>
+          <t>-1,47; 5,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 6,47</t>
+          <t>-0,25; 6,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 9,38</t>
+          <t>1,42; 9,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 5,5</t>
+          <t>-3,28; 5,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 3,12</t>
+          <t>-5,22; 3,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 6,45</t>
+          <t>-1,48; 7,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 4,39</t>
+          <t>-1,03; 4,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 3,44</t>
+          <t>-1,61; 3,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,91</t>
+          <t>1,1; 6,53</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 88,14</t>
+          <t>-15,9; 94,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 116,17</t>
+          <t>-2,73; 125,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,99; 165,21</t>
+          <t>16,69; 164,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 47,17</t>
+          <t>-19,76; 46,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,81; 26,79</t>
+          <t>-31,59; 25,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 54,22</t>
+          <t>-9,42; 62,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 46,59</t>
+          <t>-9,02; 47,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 38,1</t>
+          <t>-13,66; 42,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,6; 72,3</t>
+          <t>9,21; 70,66</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 5,6</t>
+          <t>-4,56; 5,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 1,98</t>
+          <t>-7,23; 2,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 9,89</t>
+          <t>-0,25; 9,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,07; 16,86</t>
+          <t>4,85; 16,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,85; 11,84</t>
+          <t>0,83; 12,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,62; 11,07</t>
+          <t>1,44; 11,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,11; 9,49</t>
+          <t>2,06; 9,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 5,4</t>
+          <t>-1,42; 5,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,29; 9,11</t>
+          <t>2,35; 9,19</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 44,3</t>
+          <t>-25,21; 40,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-43,13; 15,4</t>
+          <t>-39,66; 19,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,01; 77,75</t>
+          <t>-2,0; 73,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,15; 107,89</t>
+          <t>23,17; 114,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,52; 76,43</t>
+          <t>3,84; 85,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,99; 74,1</t>
+          <t>6,85; 75,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>10,6; 61,84</t>
+          <t>11,17; 67,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 36,43</t>
+          <t>-7,79; 38,92</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,52; 62,2</t>
+          <t>12,0; 61,22</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,91; 16,44</t>
+          <t>3,55; 15,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 7,03</t>
+          <t>-4,16; 6,47</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 4,12</t>
+          <t>-5,86; 4,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,51; 16,97</t>
+          <t>6,62; 17,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,37; 14,26</t>
+          <t>3,21; 13,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 5,7</t>
+          <t>-11,72; 6,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,95; 14,92</t>
+          <t>6,86; 15,04</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,03; 9,47</t>
+          <t>1,85; 9,35</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 3,58</t>
+          <t>-7,88; 3,4</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>16,79; 68,7</t>
+          <t>11,72; 66,27</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 30,49</t>
+          <t>-14,26; 28,4</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 17,65</t>
+          <t>-19,98; 18,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>14,04; 45,62</t>
+          <t>15,76; 48,12</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>8,2; 38,8</t>
+          <t>7,99; 37,26</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-31,82; 14,88</t>
+          <t>-29,01; 15,76</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>19,53; 47,14</t>
+          <t>18,96; 46,67</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>5,73; 29,83</t>
+          <t>5,19; 29,41</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 11,16</t>
+          <t>-22,82; 10,29</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,51</t>
+          <t>1,44; 4,67</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 2,86</t>
+          <t>-0,1; 2,85</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,71</t>
+          <t>3,37; 6,68</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,52</t>
+          <t>2,52; 6,49</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,0</t>
+          <t>1,05; 5,02</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,77</t>
+          <t>1,61; 5,72</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,07</t>
+          <t>2,62; 5,04</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,6</t>
+          <t>1,17; 3,56</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,87</t>
+          <t>3,2; 5,84</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>14,46; 54,07</t>
+          <t>14,19; 54,86</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,02; 34,44</t>
+          <t>-1,05; 33,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>34,92; 81,32</t>
+          <t>34,51; 79,29</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>15,98; 42,75</t>
+          <t>14,58; 41,93</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>7,43; 32,63</t>
+          <t>6,07; 32,47</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>10,66; 37,55</t>
+          <t>9,66; 37,05</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>20,62; 42,48</t>
+          <t>19,45; 40,98</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>9,18; 29,79</t>
+          <t>8,76; 29,5</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>23,85; 48,5</t>
+          <t>23,78; 48,23</t>
         </is>
       </c>
     </row>
